--- a/AZ 203/DMOC.xlsx
+++ b/AZ 203/DMOC.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22524"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2119\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_1339\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{3C8656C2-1933-4B77-8D16-92CDDB3D16A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{912A71BA-7472-4723-A4FC-9190E2A8A6F8}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{3C8656C2-1933-4B77-8D16-92CDDB3D16A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FB56A82C-A20A-4132-9D42-F13F516E6835}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FEF88BDD-219F-4F14-A806-2833D625EDC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,240 +33,249 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
   <si>
     <t>Dmoc License Key</t>
   </si>
   <si>
+    <t>Student Access Passes</t>
+  </si>
+  <si>
     <t>QAIE-USKR-EEDW-ETUB</t>
   </si>
   <si>
+    <t>Q6K4RBB1SCK8Q62T2C</t>
+  </si>
+  <si>
+    <t>mohsobhy</t>
+  </si>
+  <si>
     <t>AYNG-YNYC-ITAF-JSKQ</t>
   </si>
   <si>
+    <t>Q79Q2CU6BKOPXNEZWM</t>
+  </si>
+  <si>
+    <t>Akram</t>
+  </si>
+  <si>
     <t>ULTX-JJKU-LHFB-ICTU</t>
   </si>
   <si>
+    <t>Q7EVE35FKSRBSLKCQS</t>
+  </si>
+  <si>
+    <t>Lakmal</t>
+  </si>
+  <si>
     <t>MHER-NTCA-CGTY-SCFJ</t>
   </si>
   <si>
+    <t>Q7GF635Z0E673PFFYJ</t>
+  </si>
+  <si>
+    <t>madabaani</t>
+  </si>
+  <si>
     <t>RNCT-AUSO-LQSR-FUUG</t>
   </si>
   <si>
+    <t>Q7HL06HW8VFRB54IFB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abdalla Abdelmonem </t>
+  </si>
+  <si>
     <t>AGTZ-OTAY-GQVD-NMCG</t>
   </si>
   <si>
+    <t>Q7SOJFW9CKG231RPTZ</t>
+  </si>
+  <si>
+    <t>Ayman</t>
+  </si>
+  <si>
     <t>ZWKV-XAUP-MNGX-YLVF</t>
   </si>
   <si>
+    <t>Q8744JTUO346SOCRCW</t>
+  </si>
+  <si>
+    <t>Sanjeev</t>
+  </si>
+  <si>
     <t>JNYM-JGVY-NBNH-WPYZ</t>
   </si>
   <si>
+    <t>Q8OZ4MCV6BPJEN0KXH</t>
+  </si>
+  <si>
+    <t>Amr Habib</t>
+  </si>
+  <si>
     <t>OJPJ-KZGX-MEKY-NDXV</t>
   </si>
   <si>
+    <t>Q8Z6SX768C1BR69Z43</t>
+  </si>
+  <si>
+    <t>Ashwini Nagaraju</t>
+  </si>
+  <si>
     <t>VQRA-LNXT-YJFW-NNQX</t>
   </si>
   <si>
+    <t>Q9GUXDLCE7D4M880TL</t>
+  </si>
+  <si>
+    <t>Chandan</t>
+  </si>
+  <si>
     <t>MEGP-TJSK-EYAF-TXLH</t>
   </si>
   <si>
+    <t>Q9Q2UB5MIWJORHKHHU</t>
+  </si>
+  <si>
+    <t>Tauqeer</t>
+  </si>
+  <si>
+    <t>https://www.microsoftazurepass.com/</t>
+  </si>
+  <si>
     <t>BPJG-VYOY-JWLY-RKKZ</t>
   </si>
   <si>
+    <t>QBGX9HY3BTRITOT0GB</t>
+  </si>
+  <si>
+    <t>Monayer</t>
+  </si>
+  <si>
     <t>JGAW-TEYE-BDEG-OPPB</t>
   </si>
   <si>
+    <t>QC1D0KK3603NGZT3LI</t>
+  </si>
+  <si>
+    <t>Asmaa Alshamsi</t>
+  </si>
+  <si>
     <t>GYNU-JWMD-XKQQ-ASXO</t>
   </si>
   <si>
+    <t>QC2FGRC4SP9I6ITDPD</t>
+  </si>
+  <si>
+    <t>RAM PRAVESH</t>
+  </si>
+  <si>
     <t>BOYC-EBBN-LETQ-ZYAE</t>
   </si>
   <si>
+    <t>QCBWS9TJS47VRBKFLP</t>
+  </si>
+  <si>
     <t>FYPS-YOFN-RXWG-OIEG</t>
   </si>
   <si>
+    <t>QDOPZO7BC61WLHSYW6</t>
+  </si>
+  <si>
     <t>DQCA-RKXF-UAJC-DWBZ</t>
   </si>
   <si>
+    <t>QEBBWZ9M010OQ0HQE0</t>
+  </si>
+  <si>
     <t>KJIZ-ACNK-GLLH-FVWA</t>
   </si>
   <si>
+    <t>QEC8PB3CMWBGTCOE5C</t>
+  </si>
+  <si>
+    <t>Habibullah Rafay</t>
+  </si>
+  <si>
     <t>AKKJ-TANS-BKYY-FDKV</t>
   </si>
   <si>
+    <t>QET6GDN8TGXGUHL4V7</t>
+  </si>
+  <si>
+    <t>Anurag Dubey</t>
+  </si>
+  <si>
     <t>TUWC-XCDY-APUD-ZNXZ</t>
   </si>
   <si>
+    <t>QF6ULO55LTXMJW95XT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tauqeer </t>
+  </si>
+  <si>
     <t>EGCQ-JSDK-WQVQ-EPFD</t>
   </si>
   <si>
+    <t>QF8LN4HJH7E92P7017</t>
+  </si>
+  <si>
     <t>BNLI-WRDV-HJGB-DHQL</t>
   </si>
   <si>
+    <t>QG1YNLQUW4JSZJF3XB</t>
+  </si>
+  <si>
+    <t>Ahmed Shaheen</t>
+  </si>
+  <si>
     <t>KWUZ-YRJB-RMDH-HNUL</t>
   </si>
   <si>
+    <t>QGGVVEUYCDMY2OYC9K</t>
+  </si>
+  <si>
+    <t>Pyae Sone Win</t>
+  </si>
+  <si>
     <t>KRCM-CPDK-AEJA-JZEP</t>
   </si>
   <si>
+    <t>QGMZ6NP07X5ZUKXPEO</t>
+  </si>
+  <si>
+    <t>Ahmed Nady</t>
+  </si>
+  <si>
     <t>XHDI-VGCH-EKRH-LWOR</t>
   </si>
   <si>
+    <t>QH4DWFN7TUMCI7NTS8</t>
+  </si>
+  <si>
     <t>PVRM-FEJV-THWR-IJPP</t>
   </si>
   <si>
+    <t>QIN1RIHBB2P2SRH0DZ</t>
+  </si>
+  <si>
+    <t>Ahmed Mustafa</t>
+  </si>
+  <si>
     <t>IOHX-HMNE-MSFP-VTWE</t>
   </si>
   <si>
-    <t>Q6K4RBB1SCK8Q62T2C</t>
-  </si>
-  <si>
-    <t>Q79Q2CU6BKOPXNEZWM</t>
-  </si>
-  <si>
-    <t>Q7EVE35FKSRBSLKCQS</t>
-  </si>
-  <si>
-    <t>Q7GF635Z0E673PFFYJ</t>
-  </si>
-  <si>
-    <t>Q7HL06HW8VFRB54IFB</t>
-  </si>
-  <si>
-    <t>Q7SOJFW9CKG231RPTZ</t>
-  </si>
-  <si>
-    <t>Q8744JTUO346SOCRCW</t>
-  </si>
-  <si>
-    <t>Q8OZ4MCV6BPJEN0KXH</t>
-  </si>
-  <si>
-    <t>Q8Z6SX768C1BR69Z43</t>
-  </si>
-  <si>
-    <t>Q9GUXDLCE7D4M880TL</t>
-  </si>
-  <si>
-    <t>Q9Q2UB5MIWJORHKHHU</t>
-  </si>
-  <si>
-    <t>QBGX9HY3BTRITOT0GB</t>
-  </si>
-  <si>
-    <t>QC1D0KK3603NGZT3LI</t>
-  </si>
-  <si>
-    <t>QC2FGRC4SP9I6ITDPD</t>
-  </si>
-  <si>
-    <t>QCBWS9TJS47VRBKFLP</t>
-  </si>
-  <si>
-    <t>QDOPZO7BC61WLHSYW6</t>
-  </si>
-  <si>
-    <t>QEBBWZ9M010OQ0HQE0</t>
-  </si>
-  <si>
-    <t>QEC8PB3CMWBGTCOE5C</t>
-  </si>
-  <si>
-    <t>QET6GDN8TGXGUHL4V7</t>
-  </si>
-  <si>
-    <t>QF6ULO55LTXMJW95XT</t>
-  </si>
-  <si>
-    <t>QF8LN4HJH7E92P7017</t>
-  </si>
-  <si>
-    <t>QG1YNLQUW4JSZJF3XB</t>
-  </si>
-  <si>
-    <t>QGGVVEUYCDMY2OYC9K</t>
-  </si>
-  <si>
-    <t>QGMZ6NP07X5ZUKXPEO</t>
-  </si>
-  <si>
-    <t>QH4DWFN7TUMCI7NTS8</t>
-  </si>
-  <si>
-    <t>QIN1RIHBB2P2SRH0DZ</t>
-  </si>
-  <si>
     <t>QJ6RFUHIXV456QLJZN</t>
   </si>
   <si>
-    <t>Student Access Passes</t>
-  </si>
-  <si>
-    <t>Lakmal</t>
-  </si>
-  <si>
-    <t>Chandan</t>
-  </si>
-  <si>
-    <t>Habibullah Rafay</t>
-  </si>
-  <si>
-    <t>Asmaa Alshamsi</t>
-  </si>
-  <si>
-    <t>Ayman</t>
-  </si>
-  <si>
-    <t>Anurag Dubey</t>
-  </si>
-  <si>
-    <t>mohsobhy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tauqeer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abdalla Abdelmonem </t>
-  </si>
-  <si>
     <t>FAHAD</t>
   </si>
   <si>
-    <t>Pyae Sone Win</t>
-  </si>
-  <si>
-    <t>Ahmed Mustafa</t>
-  </si>
-  <si>
-    <t>Ahmed Nady</t>
-  </si>
-  <si>
-    <t>RAM PRAVESH</t>
-  </si>
-  <si>
-    <t>Akram</t>
-  </si>
-  <si>
-    <t>https://www.microsoftazurepass.com/</t>
-  </si>
-  <si>
-    <t>Ahmed Shaheen</t>
-  </si>
-  <si>
-    <t>Sanjeev</t>
-  </si>
-  <si>
-    <t>Ashwini Nagaraju</t>
-  </si>
-  <si>
-    <t>madabaani</t>
-  </si>
-  <si>
-    <t>Amr Habib</t>
-  </si>
-  <si>
-    <t>Tauqeer</t>
+    <t>https://www.skillpipe.com/</t>
+  </si>
+  <si>
+    <t>https://www.itexams.com/</t>
   </si>
 </sst>
 </file>
@@ -275,7 +286,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -283,7 +294,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -303,7 +314,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -383,8 +394,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ارتباط تشعبي" xfId="1" builtinId="8"/>
+    <cellStyle name="عادي" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -400,7 +411,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="نسق Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -699,14 +710,14 @@
   <dimension ref="B1:K28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F1:I1048576"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="58.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="58.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.25">
@@ -714,297 +725,308 @@
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>28</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>44</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E23" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="F24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E28" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K12" r:id="rId1" xr:uid="{F9068DDD-DDFD-495C-9D3F-8EC4F215A087}"/>
+    <hyperlink ref="K10" r:id="rId2" xr:uid="{D4165E7B-323C-4040-A280-DFF9395C8417}"/>
+    <hyperlink ref="K15" r:id="rId3" xr:uid="{7D5BC6A4-A26D-42EE-B558-1764A7F819FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
